--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -84,6 +84,27 @@
   <si>
     <t>8 hrs</t>
   </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Revise some core java concepts , some jBPM overview &amp; watched some rec. sessions</t>
+  </si>
+  <si>
+    <t>Attended 2nd batch for refreshing the concepts.</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>Practice of core java, spring and some rest part.</t>
+  </si>
+  <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
+    <t>Revised the same and try to get some new concept.</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -330,6 +351,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,9 +389,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +674,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,330 +687,366 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <v>44410</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>44411</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>44412</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>44413</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>44414</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="16">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44417</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="16">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44418</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="16">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44419</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="10"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="10"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="10"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="10"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="10"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -1755,13 +1831,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,48 @@
   </si>
   <si>
     <t>Revised the same and try to get some new concept.</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>VMS project discussion &amp; some practice on core java.</t>
+  </si>
+  <si>
+    <t>Revise concepts of jBPM and revised some java interview questions.</t>
+  </si>
+  <si>
+    <t>9 hrs</t>
+  </si>
+  <si>
+    <t>Revise / Discussion</t>
+  </si>
+  <si>
+    <t>Discussion with team for project revise some java concepts.</t>
+  </si>
+  <si>
+    <t>Java &amp; jBPM revision.</t>
+  </si>
+  <si>
+    <t>VMS project discussion with team &amp; some core java concepts disussion.</t>
+  </si>
+  <si>
+    <t>Revision/Meeting</t>
+  </si>
+  <si>
+    <t>Attended virtual meeting with all the team members of comp. &amp; revised jBPM</t>
+  </si>
+  <si>
+    <t>Revise/Project</t>
+  </si>
+  <si>
+    <t>Revised VMS project with team &amp; Project representation with Bharani sir.</t>
+  </si>
+  <si>
+    <t>Revise/BPM</t>
+  </si>
+  <si>
+    <t>Start working on VMS project correction &amp; Attended meeting of BPM overview.</t>
   </si>
 </sst>
 </file>
@@ -673,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,76 +932,156 @@
       <c r="C15" s="11">
         <v>44419</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44420</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44421</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="16">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44424</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="16">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44425</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="16">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44426</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="16">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44427</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="16">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44428</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="16">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44431</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="1"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="17"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>SlNo</t>
   </si>
@@ -146,6 +146,54 @@
   </si>
   <si>
     <t>Start working on VMS project correction &amp; Attended meeting of BPM overview.</t>
+  </si>
+  <si>
+    <t>jBPM/VMS Project</t>
+  </si>
+  <si>
+    <t>Discussion with team regarding project and made changes in project.</t>
+  </si>
+  <si>
+    <t>VMS Project/ Core Java</t>
+  </si>
+  <si>
+    <t>Discussion with team about core java &amp; VMS Project.</t>
+  </si>
+  <si>
+    <t>Discussion/Practice</t>
+  </si>
+  <si>
+    <t>Discussion and some practice on core java as well as jBPM.</t>
+  </si>
+  <si>
+    <t>Training with 2 batch</t>
+  </si>
+  <si>
+    <t>Attend the meeting with 2nd batch for clearifications of iava 8 &amp; practice.</t>
+  </si>
+  <si>
+    <t>Training / Practice</t>
+  </si>
+  <si>
+    <t>Attend the session with batch 2nd fro java 8 and did some practice.</t>
+  </si>
+  <si>
+    <t>8 hrs.</t>
+  </si>
+  <si>
+    <t>jBPM Clearification</t>
+  </si>
+  <si>
+    <t>Meeting with akshay sir for clearification of jBPM &amp; practice.</t>
+  </si>
+  <si>
+    <t>Session/Practice</t>
+  </si>
+  <si>
+    <t>Attended meeting of Java Clearification session &amp; Practice on core java.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice of core java, spring and some rest api part &amp; spme jBPM funtion refreshment </t>
   </si>
 </sst>
 </file>
@@ -715,15 +763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,117 +1116,193 @@
       <c r="C23" s="11">
         <v>44431</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="16">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11">
+        <v>44432</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="16">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44433</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="16">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44434</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="16">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44435</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="16">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44436</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="16">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44438</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="16">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44439</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="10"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="10"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="10"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
